--- a/Documentos/2. Proposta de Projeto/Planeamento.xlsx
+++ b/Documentos/2. Proposta de Projeto/Planeamento.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Inês" sheetId="1" r:id="rId1"/>
-    <sheet name="Rita" sheetId="2" r:id="rId2"/>
-    <sheet name="Nuno" sheetId="3" r:id="rId3"/>
+    <sheet name="Folha1" sheetId="4" r:id="rId2"/>
+    <sheet name="Rita" sheetId="2" r:id="rId3"/>
+    <sheet name="Nuno" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>24 fev - 3 mar</t>
   </si>
@@ -116,6 +117,108 @@
   </si>
   <si>
     <t>BD</t>
+  </si>
+  <si>
+    <t>19-23 Fevereiro</t>
+  </si>
+  <si>
+    <t>26-2 Março</t>
+  </si>
+  <si>
+    <t>5-9 Março</t>
+  </si>
+  <si>
+    <t>12-16 Março</t>
+  </si>
+  <si>
+    <t>19-23 Março</t>
+  </si>
+  <si>
+    <t>26-30 Março</t>
+  </si>
+  <si>
+    <t>2-6 Abril</t>
+  </si>
+  <si>
+    <t>9-13 Abril</t>
+  </si>
+  <si>
+    <t>16-20 Abril</t>
+  </si>
+  <si>
+    <t>23-27 Abril</t>
+  </si>
+  <si>
+    <t>30-4 Maio</t>
+  </si>
+  <si>
+    <t>7-11 Maio</t>
+  </si>
+  <si>
+    <t>14-18 Maio</t>
+  </si>
+  <si>
+    <t>21-25 Maio</t>
+  </si>
+  <si>
+    <t>28-1 Junho</t>
+  </si>
+  <si>
+    <t>4-8 Junho</t>
+  </si>
+  <si>
+    <t>11-15 Junho</t>
+  </si>
+  <si>
+    <t>Tecnologia a usar (NFC ou RFID)</t>
+  </si>
+  <si>
+    <t>Modelo EA</t>
+  </si>
+  <si>
+    <t>Modelo Relacional</t>
+  </si>
+  <si>
+    <t>Criação das tabelas</t>
+  </si>
+  <si>
+    <t>Inserção de Valores</t>
+  </si>
+  <si>
+    <t>Transações, Procedimentos armazenados, triggers, etc</t>
+  </si>
+  <si>
+    <t>Camada de acesso/escrita a dados</t>
+  </si>
+  <si>
+    <t>Camada da lógica de negocio</t>
+  </si>
+  <si>
+    <t>Web API com autenticação</t>
+  </si>
+  <si>
+    <t>Aplicação Móvel</t>
+  </si>
+  <si>
+    <t>Aplicação WEB</t>
+  </si>
+  <si>
+    <t>Relatorio</t>
+  </si>
+  <si>
+    <t>Proposta de projeto</t>
+  </si>
+  <si>
+    <t>Cartaz</t>
+  </si>
+  <si>
+    <t>Formato Dados (Tag)</t>
+  </si>
+  <si>
+    <t>Modelo de Dados</t>
+  </si>
+  <si>
+    <t>APPs</t>
   </si>
 </sst>
 </file>
@@ -139,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,12 +342,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +354,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H22"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +694,7 @@
     <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -598,22 +715,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="3"/>
@@ -622,143 +745,182 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,7 +931,10 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -780,7 +945,10 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -791,7 +959,10 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
@@ -802,7 +973,10 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
@@ -813,11 +987,14 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="3"/>
@@ -837,6 +1014,501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T17"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H22"/>
   <sheetViews>
@@ -875,229 +1547,229 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1108,11 +1780,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1147,229 +1819,229 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
